--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43171,6 +43171,41 @@
         <v>4400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>39000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43206,6 +43206,41 @@
         <v>39000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>26100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43241,6 +43241,41 @@
         <v>26100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>43600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43276,6 +43276,41 @@
         <v>43600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43311,6 +43311,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43346,6 +43346,43 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43383,6 +43383,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43418,6 +43418,43 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43455,6 +43455,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43490,6 +43490,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43525,6 +43525,43 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43562,6 +43562,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>33900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43597,6 +43597,76 @@
         <v>33900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>64400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43667,6 +43667,76 @@
         <v>64400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>5400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43737,6 +43737,41 @@
         <v>5400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>21800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43772,6 +43772,41 @@
         <v>21800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43807,6 +43807,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>20500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43842,6 +43842,41 @@
         <v>20500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>69900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43877,6 +43877,76 @@
         <v>69900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>69600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>30700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43947,6 +43947,41 @@
         <v>30700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>87600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43982,6 +43982,41 @@
         <v>87600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>100900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2663"/>
+  <dimension ref="A1:I2664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93787,6 +93787,41 @@
         <v>100900</v>
       </c>
     </row>
+    <row r="2664">
+      <c r="A2664" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2664" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2664" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F2664" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G2664" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2664" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2664" t="n">
+        <v>73000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2664"/>
+  <dimension ref="A1:I2665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93822,6 +93822,41 @@
         <v>73000</v>
       </c>
     </row>
+    <row r="2665">
+      <c r="A2665" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2665" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2665" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2665" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2665" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2665" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2665" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2665"/>
+  <dimension ref="A1:I2666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93857,6 +93857,41 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="2666">
+      <c r="A2666" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2666" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2666" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2666" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2666" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2666" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2666"/>
+  <dimension ref="A1:I2667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93892,6 +93892,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="2667">
+      <c r="A2667" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2667" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2667" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2667" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2667" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2667" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2667" t="n">
+        <v>94400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2667"/>
+  <dimension ref="A1:I2668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93927,6 +93927,41 @@
         <v>94400</v>
       </c>
     </row>
+    <row r="2668">
+      <c r="A2668" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2668" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2668" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2668" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2668" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2668" t="n">
+        <v>37000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2668"/>
+  <dimension ref="A1:I2669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93962,6 +93962,41 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="2669">
+      <c r="A2669" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2669" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2669" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2669" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2669" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H2669" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2669" t="n">
+        <v>57000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2669"/>
+  <dimension ref="A1:I2670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93997,6 +93997,41 @@
         <v>57000</v>
       </c>
     </row>
+    <row r="2670">
+      <c r="A2670" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2670" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2670" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F2670" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2670" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H2670" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I2670" t="n">
+        <v>23800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2670"/>
+  <dimension ref="A1:I2671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94032,6 +94032,41 @@
         <v>23800</v>
       </c>
     </row>
+    <row r="2671">
+      <c r="A2671" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2671" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2671" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2671" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F2671" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G2671" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2671" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2671" t="n">
+        <v>61900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2671"/>
+  <dimension ref="A1:I2672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94067,6 +94067,41 @@
         <v>61900</v>
       </c>
     </row>
+    <row r="2672">
+      <c r="A2672" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2672" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2672" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2672" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2672" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2672" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2672" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2672" t="n">
+        <v>57500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2672"/>
+  <dimension ref="A1:I2673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94102,6 +94102,41 @@
         <v>57500</v>
       </c>
     </row>
+    <row r="2673">
+      <c r="A2673" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2673" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2673" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2673" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2673" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G2673" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2673" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2673" t="n">
+        <v>76000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2673"/>
+  <dimension ref="A1:I2674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94137,6 +94137,41 @@
         <v>76000</v>
       </c>
     </row>
+    <row r="2674">
+      <c r="A2674" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2674" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2674" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2674" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2674" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2674" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2674" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2674"/>
+  <dimension ref="A1:I2675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94172,6 +94172,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2675">
+      <c r="A2675" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2675" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2675" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2675" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2675" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G2675" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2675" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I2675" t="n">
+        <v>28900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2675"/>
+  <dimension ref="A1:I2676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94207,6 +94207,41 @@
         <v>28900</v>
       </c>
     </row>
+    <row r="2676">
+      <c r="A2676" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2676" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2676" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2676" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2676" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2676" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H2676" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I2676" t="n">
+        <v>8700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2676"/>
+  <dimension ref="A1:I2677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94242,6 +94242,41 @@
         <v>8700</v>
       </c>
     </row>
+    <row r="2677">
+      <c r="A2677" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2677" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2677" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2677" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2677" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2677" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2677" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2677" t="n">
+        <v>19700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5075.xlsx
+++ b/data/5075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2677"/>
+  <dimension ref="A1:I2678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94277,6 +94277,43 @@
         <v>19700</v>
       </c>
     </row>
+    <row r="2678">
+      <c r="A2678" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2678" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="D2678" t="inlineStr">
+        <is>
+          <t>PLENITU</t>
+        </is>
+      </c>
+      <c r="E2678" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2678" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2678" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2678" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2678" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
